--- a/etu_test.xlsx
+++ b/etu_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Nom</t>
   </si>
@@ -47,18 +47,57 @@
     <t>NomTA</t>
   </si>
   <si>
+    <t>ABBE</t>
+  </si>
+  <si>
+    <t>TRISTAN</t>
+  </si>
+  <si>
+    <t>GPhy</t>
+  </si>
+  <si>
+    <t>apprentissage</t>
+  </si>
+  <si>
+    <t>SANOFI</t>
+  </si>
+  <si>
+    <t>Gentilly (94)</t>
+  </si>
+  <si>
+    <t>BELLOCQ</t>
+  </si>
+  <si>
+    <t>GENIET</t>
+  </si>
+  <si>
+    <t>KONE</t>
+  </si>
+  <si>
+    <t>YACOUBA</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>LABORATOIRE XLIM</t>
+  </si>
+  <si>
+    <t>Poitiers</t>
+  </si>
+  <si>
+    <t>BOURDON</t>
+  </si>
+  <si>
+    <t>URRUTY</t>
+  </si>
+  <si>
     <t>MONTBULEAU--GENTELET</t>
   </si>
   <si>
     <t>TITOUAN</t>
   </si>
   <si>
-    <t>GPhy</t>
-  </si>
-  <si>
-    <t>apprentissage</t>
-  </si>
-  <si>
     <t>MAAT PHARMA</t>
   </si>
   <si>
@@ -71,7 +110,16 @@
     <t>0617421317</t>
   </si>
   <si>
-    <t>URRUTY</t>
+    <t>NIGGEL</t>
+  </si>
+  <si>
+    <t>THIBAULT</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>SAVANY</t>
   </si>
 </sst>
 </file>
@@ -411,7 +459,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,11 +521,91 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/etu_test.xlsx
+++ b/etu_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>Nom</t>
   </si>
@@ -83,597 +83,585 @@
     <t>JANELLE</t>
   </si>
   <si>
-    <t>INFOGENE</t>
+    <t>ARNOUX</t>
+  </si>
+  <si>
+    <t>LEA</t>
+  </si>
+  <si>
+    <t>ARONDOR</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALLEJOS VEGA </t>
+  </si>
+  <si>
+    <t>01 71 18 21 00</t>
+  </si>
+  <si>
+    <t>AUBERTOT</t>
+  </si>
+  <si>
+    <t>EMMA</t>
+  </si>
+  <si>
+    <t>CLINISYS</t>
+  </si>
+  <si>
+    <t>Vincennes (94300)</t>
+  </si>
+  <si>
+    <t>LAHAYE</t>
+  </si>
+  <si>
+    <t>URRUTY</t>
+  </si>
+  <si>
+    <t>AUBINEAU</t>
+  </si>
+  <si>
+    <t>NATHAN</t>
+  </si>
+  <si>
+    <t>PYXIS</t>
+  </si>
+  <si>
+    <t>LYON 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOUDJELOUD </t>
+  </si>
+  <si>
+    <t>GIRARD</t>
+  </si>
+  <si>
+    <t>AUMONIER</t>
+  </si>
+  <si>
+    <t>MARINE</t>
+  </si>
+  <si>
+    <t>Gentilly (92)</t>
+  </si>
+  <si>
+    <t>CHARTRAIN</t>
+  </si>
+  <si>
+    <t>0160496816</t>
+  </si>
+  <si>
+    <t>BARANGER-LEONARD</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>BASTA</t>
+  </si>
+  <si>
+    <t>KENZA</t>
+  </si>
+  <si>
+    <t>HAYOT</t>
+  </si>
+  <si>
+    <t>BELLATRECHE</t>
+  </si>
+  <si>
+    <t>LOUBNA</t>
+  </si>
+  <si>
+    <t>ROCKWELL AUTOMATION</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>LAMOURE</t>
+  </si>
+  <si>
+    <t>BENBERNOU</t>
+  </si>
+  <si>
+    <t>AOUED</t>
+  </si>
+  <si>
+    <t>BERISSET</t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>BERRY</t>
+  </si>
+  <si>
+    <t>MAXENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCENTURE </t>
+  </si>
+  <si>
+    <t>SéRAZIN</t>
+  </si>
+  <si>
+    <t>BEUGRE</t>
+  </si>
+  <si>
+    <t>MARIE-IVANIDE</t>
+  </si>
+  <si>
+    <t>SERVIER</t>
+  </si>
+  <si>
+    <t>GIDY</t>
+  </si>
+  <si>
+    <t>VALADE</t>
+  </si>
+  <si>
+    <t>0668741590</t>
+  </si>
+  <si>
+    <t>FOUSSE</t>
+  </si>
+  <si>
+    <t>BODINEAU</t>
+  </si>
+  <si>
+    <t>ROBIN</t>
+  </si>
+  <si>
+    <t>BONEHAM</t>
+  </si>
+  <si>
+    <t>ANTHEA</t>
+  </si>
+  <si>
+    <t>REVVITY</t>
+  </si>
+  <si>
+    <t>Distanciel</t>
+  </si>
+  <si>
+    <t>BODET-CLEMENT</t>
+  </si>
+  <si>
+    <t>0677947471</t>
+  </si>
+  <si>
+    <t>BONNEAU</t>
+  </si>
+  <si>
+    <t>NICOLAS</t>
+  </si>
+  <si>
+    <t>WEGA INFORMATIK AG</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONBERGER </t>
+  </si>
+  <si>
+    <t>BORDES</t>
+  </si>
+  <si>
+    <t>SOPHIE</t>
+  </si>
+  <si>
+    <t>ICTA</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>DROAL</t>
+  </si>
+  <si>
+    <t>03.80.53.40.00</t>
+  </si>
+  <si>
+    <t>BUHENDWA NZUKA</t>
+  </si>
+  <si>
+    <t>JEVIC</t>
+  </si>
+  <si>
+    <t>BUJAULT</t>
+  </si>
+  <si>
+    <t>CLARA</t>
+  </si>
+  <si>
+    <t>CAILLAUD</t>
+  </si>
+  <si>
+    <t>BERTILLE</t>
+  </si>
+  <si>
+    <t>CERQUEIRA</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>CHANDIVERT</t>
+  </si>
+  <si>
+    <t>PAOLETTI</t>
+  </si>
+  <si>
+    <t>0674836546</t>
+  </si>
+  <si>
+    <t>CHASTAINGT</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>Gentilly 92</t>
+  </si>
+  <si>
+    <t>RIBEIRO</t>
+  </si>
+  <si>
+    <t>01 60 49 76 47</t>
+  </si>
+  <si>
+    <t>CHEMIN</t>
+  </si>
+  <si>
+    <t>NOAH</t>
+  </si>
+  <si>
+    <t>DEBRY</t>
+  </si>
+  <si>
+    <t>LOU-ANNE</t>
+  </si>
+  <si>
+    <t>DELPIROU</t>
+  </si>
+  <si>
+    <t>CORENTIN</t>
+  </si>
+  <si>
+    <t>AIXIAL</t>
+  </si>
+  <si>
+    <t>Sèvres</t>
+  </si>
+  <si>
+    <t>FERGEAULT</t>
+  </si>
+  <si>
+    <t>0667902508</t>
+  </si>
+  <si>
+    <t>DELSOL</t>
+  </si>
+  <si>
+    <t>BIOTRIAL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>LORCY</t>
+  </si>
+  <si>
+    <t>02 99 59 91 91</t>
+  </si>
+  <si>
+    <t>DEWITTE</t>
+  </si>
+  <si>
+    <t>LISA</t>
+  </si>
+  <si>
+    <t>AMEXIO</t>
+  </si>
+  <si>
+    <t>Paris, Montpellier, Lille et Nantes</t>
+  </si>
+  <si>
+    <t>FARINA</t>
+  </si>
+  <si>
+    <t>01 81 69 86 00</t>
+  </si>
+  <si>
+    <t>DHIF</t>
+  </si>
+  <si>
+    <t>NOUR DORYA</t>
+  </si>
+  <si>
+    <t>DIOP</t>
+  </si>
+  <si>
+    <t>AMADOU TIDIANE</t>
+  </si>
+  <si>
+    <t>DJOUDI</t>
+  </si>
+  <si>
+    <t>INES</t>
+  </si>
+  <si>
+    <t>EDON</t>
+  </si>
+  <si>
+    <t>01 60 49 44 42</t>
+  </si>
+  <si>
+    <t>DONG</t>
+  </si>
+  <si>
+    <t>LAURENE</t>
+  </si>
+  <si>
+    <t>NEDELEC</t>
+  </si>
+  <si>
+    <t>DOSPITAL</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>ENNOV</t>
+  </si>
+  <si>
+    <t>PARIS (75013) / POITIERS (86) / FLOIRAC (33)</t>
+  </si>
+  <si>
+    <t>SKIBITSKA</t>
+  </si>
+  <si>
+    <t>0549616610</t>
+  </si>
+  <si>
+    <t>DOUCET</t>
+  </si>
+  <si>
+    <t>DUGUET</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>POULLOT</t>
+  </si>
+  <si>
+    <t>05 49 61 66 10</t>
+  </si>
+  <si>
+    <t>DUHAYON</t>
+  </si>
+  <si>
+    <t>ETHAN</t>
+  </si>
+  <si>
+    <t>DULINSKIE</t>
+  </si>
+  <si>
+    <t>ZOE</t>
+  </si>
+  <si>
+    <t>JACQUEMART</t>
+  </si>
+  <si>
+    <t>DUTHEIL</t>
+  </si>
+  <si>
+    <t>KYLIAN</t>
+  </si>
+  <si>
+    <t>EL ARBAOUI</t>
+  </si>
+  <si>
+    <t>OUMAIMA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>AYMERIC</t>
+  </si>
+  <si>
+    <t>FOULON</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>LASSALLE</t>
+  </si>
+  <si>
+    <t>0677037914</t>
+  </si>
+  <si>
+    <t>FUENTES</t>
+  </si>
+  <si>
+    <t>ABIGAEL</t>
+  </si>
+  <si>
+    <t>IRANNEZHAD</t>
+  </si>
+  <si>
+    <t>AVIN</t>
+  </si>
+  <si>
+    <t>KAFABA</t>
+  </si>
+  <si>
+    <t>ALIMOU</t>
+  </si>
+  <si>
+    <t>KONE</t>
+  </si>
+  <si>
+    <t>YACOUBA</t>
+  </si>
+  <si>
+    <t>LABORATOIRE XLIM</t>
+  </si>
+  <si>
+    <t>Poitiers</t>
+  </si>
+  <si>
+    <t>BOURDON</t>
+  </si>
+  <si>
+    <t>LAIR</t>
+  </si>
+  <si>
+    <t>LAURANNE</t>
+  </si>
+  <si>
+    <t>STARLIMS</t>
+  </si>
+  <si>
+    <t>VOIRON</t>
+  </si>
+  <si>
+    <t>BARBIER</t>
+  </si>
+  <si>
+    <t>LAUNAY</t>
+  </si>
+  <si>
+    <t>LOUIS</t>
+  </si>
+  <si>
+    <t>IANESCO</t>
+  </si>
+  <si>
+    <t>HUET</t>
+  </si>
+  <si>
+    <t>LE GOURIEREC</t>
+  </si>
+  <si>
+    <t>FLORENTIN</t>
+  </si>
+  <si>
+    <t>MERCK</t>
+  </si>
+  <si>
+    <t>Meylan</t>
+  </si>
+  <si>
+    <t>CANET</t>
+  </si>
+  <si>
+    <t>03 90 46 90 00</t>
+  </si>
+  <si>
+    <t>LEFEVRE-ROMY</t>
+  </si>
+  <si>
+    <t>MELANY</t>
+  </si>
+  <si>
+    <t>GRAILLOT</t>
+  </si>
+  <si>
+    <t>LEMOT</t>
+  </si>
+  <si>
+    <t>MAISON</t>
+  </si>
+  <si>
+    <t>CAMILLE</t>
+  </si>
+  <si>
+    <t>LIMSEO</t>
+  </si>
+  <si>
+    <t>CHANTEPIE (35)</t>
+  </si>
+  <si>
+    <t>DUBOIS</t>
+  </si>
+  <si>
+    <t>09 72 44 17 10</t>
+  </si>
+  <si>
+    <t>MARCINIAK</t>
+  </si>
+  <si>
+    <t>MATHEO</t>
+  </si>
+  <si>
+    <t>LABVANTAGE</t>
+  </si>
+  <si>
+    <t>MAIRE</t>
+  </si>
+  <si>
+    <t>+(33)6 74.01.53.57</t>
+  </si>
+  <si>
+    <t>MARGUERITE</t>
+  </si>
+  <si>
+    <t>LOUISE</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ELISE</t>
+  </si>
+  <si>
+    <t>LE SEAC'H</t>
+  </si>
+  <si>
+    <t>MAZURIE</t>
+  </si>
+  <si>
+    <t>JULES</t>
+  </si>
+  <si>
+    <t>MONTBULEAU--GENTELET</t>
+  </si>
+  <si>
+    <t>TITOUAN</t>
+  </si>
+  <si>
+    <t>MAAT PHARMA</t>
   </si>
   <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>AUBERT</t>
-  </si>
-  <si>
-    <t>URRUTY</t>
-  </si>
-  <si>
-    <t>ARNOUX</t>
-  </si>
-  <si>
-    <t>LEA</t>
-  </si>
-  <si>
-    <t>ARONDOR</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALLEJOS VEGA </t>
-  </si>
-  <si>
-    <t>01 71 18 21 00</t>
-  </si>
-  <si>
-    <t>AUBERTOT</t>
-  </si>
-  <si>
-    <t>EMMA</t>
-  </si>
-  <si>
-    <t>CLINISYS</t>
-  </si>
-  <si>
-    <t>Vincennes (94300)</t>
-  </si>
-  <si>
-    <t>LAHAYE</t>
-  </si>
-  <si>
-    <t>AUBINEAU</t>
-  </si>
-  <si>
-    <t>NATHAN</t>
-  </si>
-  <si>
-    <t>PYXIS</t>
-  </si>
-  <si>
-    <t>LYON 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOUDJELOUD </t>
-  </si>
-  <si>
-    <t>GIRARD</t>
-  </si>
-  <si>
-    <t>AUMONIER</t>
-  </si>
-  <si>
-    <t>MARINE</t>
-  </si>
-  <si>
-    <t>Gentilly (92)</t>
-  </si>
-  <si>
-    <t>CHARTRAIN</t>
-  </si>
-  <si>
-    <t>0160496816</t>
-  </si>
-  <si>
-    <t>BARANGER-LEONARD</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>BASTA</t>
-  </si>
-  <si>
-    <t>KENZA</t>
-  </si>
-  <si>
-    <t>HAYOT</t>
-  </si>
-  <si>
-    <t>BELLATRECHE</t>
-  </si>
-  <si>
-    <t>LOUBNA</t>
-  </si>
-  <si>
-    <t>ROCKWELL AUTOMATION</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>LAMOURE</t>
-  </si>
-  <si>
-    <t>BENBERNOU</t>
-  </si>
-  <si>
-    <t>AOUED</t>
-  </si>
-  <si>
-    <t>BERISSET</t>
-  </si>
-  <si>
-    <t>HUGO</t>
-  </si>
-  <si>
-    <t>BERRY</t>
-  </si>
-  <si>
-    <t>MAXENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCENTURE </t>
-  </si>
-  <si>
-    <t>SéRAZIN</t>
-  </si>
-  <si>
-    <t>BEUGRE</t>
-  </si>
-  <si>
-    <t>MARIE-IVANIDE</t>
-  </si>
-  <si>
-    <t>SERVIER</t>
-  </si>
-  <si>
-    <t>GIDY</t>
-  </si>
-  <si>
-    <t>VALADE</t>
-  </si>
-  <si>
-    <t>0668741590</t>
-  </si>
-  <si>
-    <t>FOUSSE</t>
-  </si>
-  <si>
-    <t>BODINEAU</t>
-  </si>
-  <si>
-    <t>ROBIN</t>
-  </si>
-  <si>
-    <t>BONEHAM</t>
-  </si>
-  <si>
-    <t>ANTHEA</t>
-  </si>
-  <si>
-    <t>REVVITY</t>
-  </si>
-  <si>
-    <t>Distanciel</t>
-  </si>
-  <si>
-    <t>BODET-CLEMENT</t>
-  </si>
-  <si>
-    <t>0677947471</t>
-  </si>
-  <si>
-    <t>BONNEAU</t>
-  </si>
-  <si>
-    <t>NICOLAS</t>
-  </si>
-  <si>
-    <t>WEGA INFORMATIK AG</t>
-  </si>
-  <si>
-    <t>Basel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONBERGER </t>
-  </si>
-  <si>
-    <t>BORDES</t>
-  </si>
-  <si>
-    <t>SOPHIE</t>
-  </si>
-  <si>
-    <t>ICTA</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>DROAL</t>
-  </si>
-  <si>
-    <t>03.80.53.40.00</t>
-  </si>
-  <si>
-    <t>BUHENDWA NZUKA</t>
-  </si>
-  <si>
-    <t>JEVIC</t>
-  </si>
-  <si>
-    <t>BUJAULT</t>
-  </si>
-  <si>
-    <t>CLARA</t>
-  </si>
-  <si>
-    <t>AMEXIO</t>
-  </si>
-  <si>
-    <t>Paris, Montpellier, Lille et Nantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE GOFF </t>
-  </si>
-  <si>
-    <t>CAILLAUD</t>
-  </si>
-  <si>
-    <t>BERTILLE</t>
-  </si>
-  <si>
-    <t>CERQUEIRA</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>CHANDIVERT</t>
-  </si>
-  <si>
-    <t>PAOLETTI</t>
-  </si>
-  <si>
-    <t>0674836546</t>
-  </si>
-  <si>
-    <t>CHASTAINGT</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>Gentilly 92</t>
-  </si>
-  <si>
-    <t>RIBEIRO</t>
-  </si>
-  <si>
-    <t>01 60 49 76 47</t>
-  </si>
-  <si>
-    <t>CHEMIN</t>
-  </si>
-  <si>
-    <t>NOAH</t>
-  </si>
-  <si>
-    <t>DEBRY</t>
-  </si>
-  <si>
-    <t>LOU-ANNE</t>
-  </si>
-  <si>
-    <t>DELPIROU</t>
-  </si>
-  <si>
-    <t>CORENTIN</t>
-  </si>
-  <si>
-    <t>AIXIAL</t>
-  </si>
-  <si>
-    <t>Sèvres</t>
-  </si>
-  <si>
-    <t>FERGEAULT</t>
-  </si>
-  <si>
-    <t>0667902508</t>
-  </si>
-  <si>
-    <t>DELSOL</t>
-  </si>
-  <si>
-    <t>BIOTRIAL</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>LORCY</t>
-  </si>
-  <si>
-    <t>02 99 59 91 91</t>
-  </si>
-  <si>
-    <t>DEWITTE</t>
-  </si>
-  <si>
-    <t>LISA</t>
-  </si>
-  <si>
-    <t>FARINA</t>
-  </si>
-  <si>
-    <t>01 81 69 86 00</t>
-  </si>
-  <si>
-    <t>DHIF</t>
-  </si>
-  <si>
-    <t>NOUR DORYA</t>
-  </si>
-  <si>
-    <t>DIOP</t>
-  </si>
-  <si>
-    <t>AMADOU TIDIANE</t>
-  </si>
-  <si>
-    <t>DJOUDI</t>
-  </si>
-  <si>
-    <t>INES</t>
-  </si>
-  <si>
-    <t>EDON</t>
-  </si>
-  <si>
-    <t>01 60 49 44 42</t>
-  </si>
-  <si>
-    <t>DONG</t>
-  </si>
-  <si>
-    <t>LAURENE</t>
-  </si>
-  <si>
-    <t>NEDELEC</t>
-  </si>
-  <si>
-    <t>DOSPITAL</t>
-  </si>
-  <si>
-    <t>MARION</t>
-  </si>
-  <si>
-    <t>ENNOV</t>
-  </si>
-  <si>
-    <t>PARIS (75013) / POITIERS (86) / FLOIRAC (33)</t>
-  </si>
-  <si>
-    <t>SKIBITSKA</t>
-  </si>
-  <si>
-    <t>0549616610</t>
-  </si>
-  <si>
-    <t>DOUCET</t>
-  </si>
-  <si>
-    <t>DUGUET</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>POULLOT</t>
-  </si>
-  <si>
-    <t>05 49 61 66 10</t>
-  </si>
-  <si>
-    <t>DUHAYON</t>
-  </si>
-  <si>
-    <t>ETHAN</t>
-  </si>
-  <si>
-    <t>DULINSKIE</t>
-  </si>
-  <si>
-    <t>ZOE</t>
-  </si>
-  <si>
-    <t>JACQUEMART</t>
-  </si>
-  <si>
-    <t>DUTHEIL</t>
-  </si>
-  <si>
-    <t>KYLIAN</t>
-  </si>
-  <si>
-    <t>EL ARBAOUI</t>
-  </si>
-  <si>
-    <t>OUMAIMA</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>AYMERIC</t>
-  </si>
-  <si>
-    <t>FOULON</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>LASSALLE</t>
-  </si>
-  <si>
-    <t>0677037914</t>
-  </si>
-  <si>
-    <t>FUENTES</t>
-  </si>
-  <si>
-    <t>ABIGAEL</t>
-  </si>
-  <si>
-    <t>IRANNEZHAD</t>
-  </si>
-  <si>
-    <t>AVIN</t>
-  </si>
-  <si>
-    <t>KAFABA</t>
-  </si>
-  <si>
-    <t>ALIMOU</t>
-  </si>
-  <si>
-    <t>KONE</t>
-  </si>
-  <si>
-    <t>YACOUBA</t>
-  </si>
-  <si>
-    <t>LABORATOIRE XLIM</t>
-  </si>
-  <si>
-    <t>Poitiers</t>
-  </si>
-  <si>
-    <t>BOURDON</t>
-  </si>
-  <si>
-    <t>LAIR</t>
-  </si>
-  <si>
-    <t>LAURANNE</t>
-  </si>
-  <si>
-    <t>STARLIMS</t>
-  </si>
-  <si>
-    <t>VOIRON</t>
-  </si>
-  <si>
-    <t>BARBIER</t>
-  </si>
-  <si>
-    <t>LAUNAY</t>
-  </si>
-  <si>
-    <t>LOUIS</t>
-  </si>
-  <si>
-    <t>IANESCO</t>
-  </si>
-  <si>
-    <t>HUET</t>
-  </si>
-  <si>
-    <t>LE GOURIEREC</t>
-  </si>
-  <si>
-    <t>FLORENTIN</t>
-  </si>
-  <si>
-    <t>MERCK</t>
-  </si>
-  <si>
-    <t>Meylan</t>
-  </si>
-  <si>
-    <t>CANET</t>
-  </si>
-  <si>
-    <t>03 90 46 90 00</t>
-  </si>
-  <si>
-    <t>LEFEVRE-ROMY</t>
-  </si>
-  <si>
-    <t>MELANY</t>
-  </si>
-  <si>
-    <t>GRAILLOT</t>
-  </si>
-  <si>
-    <t>LEMOT</t>
-  </si>
-  <si>
-    <t>MAISON</t>
-  </si>
-  <si>
-    <t>CAMILLE</t>
-  </si>
-  <si>
-    <t>LIMSEO</t>
-  </si>
-  <si>
-    <t>CHANTEPIE (35)</t>
-  </si>
-  <si>
-    <t>DUBOIS</t>
-  </si>
-  <si>
-    <t>09 72 44 17 10</t>
-  </si>
-  <si>
-    <t>MARCINIAK</t>
-  </si>
-  <si>
-    <t>MATHEO</t>
-  </si>
-  <si>
-    <t>LABVANTAGE</t>
-  </si>
-  <si>
-    <t>MAIRE</t>
-  </si>
-  <si>
-    <t>+(33)6 74.01.53.57</t>
-  </si>
-  <si>
-    <t>MARGUERITE</t>
-  </si>
-  <si>
-    <t>LOUISE</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>ELISE</t>
-  </si>
-  <si>
-    <t>LE SEAC'H</t>
-  </si>
-  <si>
-    <t>MAZURIE</t>
-  </si>
-  <si>
-    <t>JULES</t>
-  </si>
-  <si>
-    <t>MONTBULEAU--GENTELET</t>
-  </si>
-  <si>
-    <t>TITOUAN</t>
-  </si>
-  <si>
-    <t>apprentissage</t>
-  </si>
-  <si>
-    <t>MAAT PHARMA</t>
-  </si>
-  <si>
     <t>BERGÉ</t>
   </si>
   <si>
@@ -828,6 +816,9 @@
   </si>
   <si>
     <t>OPHELIE</t>
+  </si>
+  <si>
+    <t>GARET</t>
   </si>
   <si>
     <t>TAUCH</t>
@@ -1332,43 +1323,31 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -1376,62 +1355,62 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="J6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1443,13 +1422,13 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1457,10 +1436,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1469,27 +1448,27 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1498,16 +1477,16 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -1515,36 +1494,36 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1553,16 +1532,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1570,10 +1549,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1581,65 +1560,65 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+      <c r="H15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1650,94 +1629,94 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
+      <c r="H17" t="s">
         <v>76</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>77</v>
       </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s">
-        <v>80</v>
-      </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
+      <c r="H18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" t="s">
-        <v>85</v>
-      </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
         <v>86</v>
       </c>
-      <c r="B19" t="s">
+      <c r="H19" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" t="s">
-        <v>91</v>
-      </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1745,36 +1724,24 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1782,10 +1749,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1796,39 +1763,39 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
         <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1840,13 +1807,13 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -1854,10 +1821,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1868,10 +1835,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1879,10 +1846,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1891,27 +1858,27 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1920,27 +1887,27 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1949,16 +1916,16 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
@@ -1966,10 +1933,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1978,24 +1945,24 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s">
         <v>39</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -2003,10 +1970,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2021,10 +1988,10 @@
         <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
@@ -2032,10 +1999,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2044,16 +2011,16 @@
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
@@ -2061,39 +2028,39 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" t="s">
         <v>141</v>
       </c>
-      <c r="B35" t="s">
+      <c r="I35" t="s">
         <v>142</v>
       </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" t="s">
-        <v>145</v>
-      </c>
-      <c r="I35" t="s">
-        <v>146</v>
-      </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -2104,10 +2071,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -2116,27 +2083,27 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2147,10 +2114,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -2159,27 +2126,27 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -2190,10 +2157,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2204,10 +2171,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -2218,10 +2185,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2230,27 +2197,27 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2259,16 +2226,16 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -2276,10 +2243,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2290,10 +2257,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2301,62 +2268,62 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" t="s">
         <v>173</v>
       </c>
-      <c r="B47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>175</v>
-      </c>
-      <c r="G47" t="s">
-        <v>176</v>
-      </c>
-      <c r="H47" t="s">
-        <v>177</v>
-      </c>
       <c r="J47" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" t="s">
+        <v>177</v>
+      </c>
+      <c r="H48" t="s">
         <v>178</v>
       </c>
-      <c r="B48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>180</v>
-      </c>
-      <c r="G48" t="s">
-        <v>181</v>
-      </c>
-      <c r="H48" t="s">
-        <v>182</v>
-      </c>
       <c r="J48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2365,53 +2332,53 @@
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J49" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H50" t="s">
         <v>187</v>
       </c>
-      <c r="B50" t="s">
+      <c r="I50" t="s">
         <v>188</v>
       </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>189</v>
-      </c>
-      <c r="G50" t="s">
-        <v>190</v>
-      </c>
-      <c r="H50" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" t="s">
-        <v>192</v>
-      </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -2420,13 +2387,13 @@
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G51" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -2434,10 +2401,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -2445,68 +2412,68 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" t="s">
         <v>197</v>
       </c>
-      <c r="B53" t="s">
+      <c r="I53" t="s">
         <v>198</v>
       </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>199</v>
-      </c>
-      <c r="G53" t="s">
-        <v>200</v>
-      </c>
-      <c r="H53" t="s">
-        <v>201</v>
-      </c>
-      <c r="I53" t="s">
-        <v>202</v>
-      </c>
       <c r="J53" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" t="s">
         <v>203</v>
       </c>
-      <c r="B54" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>205</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" t="s">
-        <v>206</v>
-      </c>
-      <c r="I54" t="s">
-        <v>207</v>
-      </c>
       <c r="J54" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2517,10 +2484,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2529,13 +2496,13 @@
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H56" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
@@ -2543,10 +2510,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2557,39 +2524,39 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" t="s">
         <v>215</v>
       </c>
-      <c r="B58" t="s">
+      <c r="I58" t="s">
         <v>216</v>
       </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s">
-        <v>217</v>
-      </c>
-      <c r="F58" t="s">
-        <v>218</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" t="s">
-        <v>219</v>
-      </c>
-      <c r="I58" t="s">
-        <v>220</v>
-      </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2600,39 +2567,39 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G60" t="s">
+        <v>222</v>
+      </c>
+      <c r="H60" t="s">
         <v>223</v>
-      </c>
-      <c r="B60" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>225</v>
-      </c>
-      <c r="G60" t="s">
-        <v>226</v>
-      </c>
-      <c r="H60" t="s">
-        <v>227</v>
       </c>
       <c r="I60">
         <v>33695841905</v>
       </c>
       <c r="J60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -2643,10 +2610,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2655,27 +2622,27 @@
         <v>13</v>
       </c>
       <c r="F62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s">
         <v>77</v>
       </c>
-      <c r="G62" t="s">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s">
-        <v>80</v>
-      </c>
       <c r="J62" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2686,10 +2653,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2698,27 +2665,27 @@
         <v>13</v>
       </c>
       <c r="F64" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" t="s">
         <v>88</v>
       </c>
-      <c r="G64" t="s">
-        <v>89</v>
-      </c>
-      <c r="H64" t="s">
-        <v>90</v>
-      </c>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B65" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2727,27 +2694,27 @@
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H65" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I65" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J65" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2758,10 +2725,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2770,27 +2737,27 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I67" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J67" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2799,27 +2766,27 @@
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G68" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H68" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I68" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2828,13 +2795,13 @@
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H69" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
@@ -2842,65 +2809,65 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>248</v>
+      </c>
+      <c r="G70" t="s">
+        <v>249</v>
+      </c>
+      <c r="H70" t="s">
         <v>250</v>
       </c>
-      <c r="B70" t="s">
+      <c r="I70" t="s">
         <v>251</v>
       </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" t="s">
-        <v>252</v>
-      </c>
-      <c r="G70" t="s">
-        <v>253</v>
-      </c>
-      <c r="H70" t="s">
-        <v>254</v>
-      </c>
-      <c r="I70" t="s">
-        <v>255</v>
-      </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>254</v>
+      </c>
+      <c r="G71" t="s">
+        <v>255</v>
+      </c>
+      <c r="H71" t="s">
         <v>256</v>
       </c>
-      <c r="B71" t="s">
-        <v>257</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" t="s">
-        <v>258</v>
-      </c>
-      <c r="G71" t="s">
-        <v>259</v>
-      </c>
-      <c r="H71" t="s">
-        <v>260</v>
-      </c>
       <c r="J71" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -2911,10 +2878,10 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -2925,10 +2892,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -2937,16 +2904,16 @@
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G74" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H74" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
@@ -2954,10 +2921,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -2966,27 +2933,27 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I75" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J75" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -2995,16 +2962,16 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H76" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I76" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
@@ -3012,10 +2979,10 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -3024,13 +2991,13 @@
         <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G77" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H77" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J77" t="s">
         <v>17</v>
@@ -3038,10 +3005,10 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -3053,82 +3020,82 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H78" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I78" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
+        <v>275</v>
+      </c>
+      <c r="B79" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>277</v>
+      </c>
+      <c r="G79" t="s">
         <v>278</v>
       </c>
-      <c r="B79" t="s">
+      <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
         <v>280</v>
       </c>
-      <c r="G79" t="s">
-        <v>281</v>
-      </c>
-      <c r="H79" t="s">
-        <v>282</v>
-      </c>
-      <c r="I79" t="s">
-        <v>283</v>
-      </c>
       <c r="J79" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
+        <v>281</v>
+      </c>
+      <c r="B80" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>283</v>
+      </c>
+      <c r="G80" t="s">
         <v>284</v>
       </c>
-      <c r="B80" t="s">
+      <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
         <v>286</v>
       </c>
-      <c r="G80" t="s">
-        <v>287</v>
-      </c>
-      <c r="H80" t="s">
-        <v>288</v>
-      </c>
-      <c r="I80" t="s">
-        <v>289</v>
-      </c>
       <c r="J80" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -3139,31 +3106,31 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
+        <v>289</v>
+      </c>
+      <c r="B82" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>290</v>
+      </c>
+      <c r="G82" t="s">
+        <v>214</v>
+      </c>
+      <c r="H82" t="s">
+        <v>291</v>
+      </c>
+      <c r="I82" t="s">
         <v>292</v>
       </c>
-      <c r="B82" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
-        <v>293</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" t="s">
-        <v>294</v>
-      </c>
-      <c r="I82" t="s">
-        <v>295</v>
-      </c>
       <c r="J82" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
